--- a/data.xlsx
+++ b/data.xlsx
@@ -455,15 +455,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nini</t>
+          <t>mari</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -471,15 +471,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>salo</t>
+          <t>nini</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -487,15 +487,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>mari</t>
+          <t>salo</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -503,15 +503,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>salo</t>
+          <t>nini</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -519,7 +519,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -535,15 +535,15 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>salo</t>
+          <t>mari</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
